--- a/江西/导出模板/市场化,年度双边协商合同分析结果.xlsx
+++ b/江西/导出模板/市场化,年度双边协商合同分析结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7AF928F-88E7-49CE-9115-79DEAC962111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5325703-0491-43E3-A372-941DFFCF93B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总统计" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -129,7 +129,10 @@
     <t>峰平谷统计</t>
   </si>
   <si>
-    <t>机组名称</t>
+    <t>合同类型</t>
+  </si>
+  <si>
+    <t>中长期持仓均价-中长期折算日前加权均价（元/MWh）</t>
   </si>
   <si>
     <t>合同电费</t>
@@ -257,20 +260,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,6 +283,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -299,7 +370,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -555,60 +626,60 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="29.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.36328125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
         <v>361.78223139999994</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>372.42728016749999</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>-10.645048767500045</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>8263.1900000000023</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>437.82392925734473</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>450.70642229877308</v>
       </c>
     </row>
@@ -625,867 +696,867 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>1598821.9630000002</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>83028.165000000008</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>104530.38</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>64389.222999999998</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>50322.534</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>81713.638000000006</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>70086.445999999996</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>74798.320999999996</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>59397.862999999998</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>120462.41399999999</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>44993.407999999996</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>53652.031999999992</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>90343.13</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>96282.08600000001</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>42118.013999999996</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>48890.193999999996</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>28173.386000000002</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>70937.483999999997</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>53698.860000000008</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>100850.58300000001</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>56295.663999999997</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>55376.994999999995</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>52319.558000000005</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>48299.763000000006</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>47861.822</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
+        <v>3934.82</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>174.4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>202.38</v>
+      </c>
+      <c r="G3" s="1">
+        <v>179.92000000000002</v>
+      </c>
+      <c r="H3" s="1">
+        <v>170.22000000000003</v>
+      </c>
+      <c r="I3" s="1">
+        <v>150.29999999999998</v>
+      </c>
+      <c r="J3" s="1">
+        <v>150.44999999999999</v>
+      </c>
+      <c r="K3" s="1">
+        <v>127.56</v>
+      </c>
+      <c r="L3" s="1">
+        <v>182.5</v>
+      </c>
+      <c r="M3" s="1">
+        <v>162.85</v>
+      </c>
+      <c r="N3" s="1">
+        <v>116.62</v>
+      </c>
+      <c r="O3" s="1">
+        <v>189.55</v>
+      </c>
+      <c r="P3" s="1">
+        <v>169.24</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>183.64</v>
+      </c>
+      <c r="R3" s="1">
+        <v>179.17999999999998</v>
+      </c>
+      <c r="S3" s="1">
+        <v>132.69</v>
+      </c>
+      <c r="T3" s="1">
+        <v>151.38</v>
+      </c>
+      <c r="U3" s="1">
+        <v>211.27999999999997</v>
+      </c>
+      <c r="V3" s="1">
+        <v>142.94999999999999</v>
+      </c>
+      <c r="W3" s="1">
+        <v>204.32</v>
+      </c>
+      <c r="X3" s="1">
+        <v>157.94999999999999</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>180.57</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>129.26</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>136.05000000000001</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>149.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>406.32658241037711</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
+        <v>476.07892775229362</v>
+      </c>
+      <c r="F4" s="1">
+        <v>516.50548473169295</v>
+      </c>
+      <c r="G4" s="1">
+        <v>357.87696198310357</v>
+      </c>
+      <c r="H4" s="1">
+        <v>295.63232287627773</v>
+      </c>
+      <c r="I4" s="1">
+        <v>543.67024617431809</v>
+      </c>
+      <c r="J4" s="1">
+        <v>465.84543702226654</v>
+      </c>
+      <c r="K4" s="1">
+        <v>586.3775556600815</v>
+      </c>
+      <c r="L4" s="1">
+        <v>325.46774246575342</v>
+      </c>
+      <c r="M4" s="1">
+        <v>739.71393306723974</v>
+      </c>
+      <c r="N4" s="1">
+        <v>385.8121077002229</v>
+      </c>
+      <c r="O4" s="1">
+        <v>283.0494961751516</v>
+      </c>
+      <c r="P4" s="1">
+        <v>533.81665090995034</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>524.29800697015912</v>
+      </c>
+      <c r="R4" s="1">
+        <v>235.05979461993527</v>
+      </c>
+      <c r="S4" s="1">
+        <v>368.45424674052299</v>
+      </c>
+      <c r="T4" s="1">
+        <v>186.11035803937114</v>
+      </c>
+      <c r="U4" s="1">
+        <v>335.75106020446805</v>
+      </c>
+      <c r="V4" s="1">
+        <v>375.64784889821624</v>
+      </c>
+      <c r="W4" s="1">
+        <v>493.59134201252942</v>
+      </c>
+      <c r="X4" s="1">
+        <v>356.41446027223805</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>306.67882261726754</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>404.76216927123636</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>355.01479603087103</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>320.01753142551485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>463.56907523724072</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1">
+        <v>345.3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>301.75000000000006</v>
+      </c>
+      <c r="G5" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H5" s="1">
+        <v>252.74999999999997</v>
+      </c>
+      <c r="I5" s="1">
+        <v>262.25</v>
+      </c>
+      <c r="J5" s="1">
+        <v>302.75000000000006</v>
+      </c>
+      <c r="K5" s="1">
+        <v>401.05</v>
+      </c>
+      <c r="L5" s="1">
+        <v>489.25</v>
+      </c>
+      <c r="M5" s="1">
+        <v>528.75</v>
+      </c>
+      <c r="N5" s="1">
+        <v>509.25</v>
+      </c>
+      <c r="O5" s="1">
+        <v>448.35000000000008</v>
+      </c>
+      <c r="P5" s="1">
+        <v>399.20000000000005</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>293.99999999999994</v>
+      </c>
+      <c r="R5" s="1">
+        <v>315</v>
+      </c>
+      <c r="S5" s="1">
+        <v>376.15000000000003</v>
+      </c>
+      <c r="T5" s="1">
+        <v>477.8</v>
+      </c>
+      <c r="U5" s="1">
+        <v>585.5</v>
+      </c>
+      <c r="V5" s="1">
+        <v>668.00000000000011</v>
+      </c>
+      <c r="W5" s="1">
+        <v>756.25</v>
+      </c>
+      <c r="X5" s="1">
+        <v>749.5</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>742</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>669.75000000000011</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>555.37249999999995</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>429.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>-57.242492826863611</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1">
+        <v>130.77892775229361</v>
+      </c>
+      <c r="F6" s="1">
+        <v>214.75548473169289</v>
+      </c>
+      <c r="G6" s="1">
+        <v>73.12696198310357</v>
+      </c>
+      <c r="H6" s="1">
+        <v>42.882322876277755</v>
+      </c>
+      <c r="I6" s="1">
+        <v>281.42024617431809</v>
+      </c>
+      <c r="J6" s="1">
+        <v>163.09543702226648</v>
+      </c>
+      <c r="K6" s="1">
+        <v>185.32755566008149</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-163.78225753424658</v>
+      </c>
+      <c r="M6" s="1">
+        <v>210.96393306723974</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-123.4378922997771</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-165.30050382484848</v>
+      </c>
+      <c r="P6" s="1">
+        <v>134.61665090995029</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>230.29800697015918</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-79.940205380064725</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-7.6957532594770441</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-291.68964196062888</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-249.74893979553195</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-292.35215110178387</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-262.65865798747058</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-393.08553972776195</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>-435.32117738273246</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-264.98783072876375</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-200.35770396912892</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>-109.13246857448513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
+        <v>2019000.351</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2">
-        <v>476.07892775229362</v>
-      </c>
-      <c r="F3" s="2">
-        <v>516.50548473169295</v>
-      </c>
-      <c r="G3" s="2">
-        <v>357.87696198310357</v>
-      </c>
-      <c r="H3" s="2">
-        <v>295.63232287627773</v>
-      </c>
-      <c r="I3" s="2">
-        <v>543.67024617431809</v>
-      </c>
-      <c r="J3" s="2">
-        <v>465.84543702226654</v>
-      </c>
-      <c r="K3" s="2">
-        <v>586.3775556600815</v>
-      </c>
-      <c r="L3" s="2">
-        <v>325.46774246575342</v>
-      </c>
-      <c r="M3" s="2">
-        <v>739.71393306723974</v>
-      </c>
-      <c r="N3" s="2">
-        <v>385.8121077002229</v>
-      </c>
-      <c r="O3" s="2">
-        <v>283.0494961751516</v>
-      </c>
-      <c r="P3" s="2">
-        <v>533.81665090995034</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>524.29800697015912</v>
-      </c>
-      <c r="R3" s="2">
-        <v>235.05979461993527</v>
-      </c>
-      <c r="S3" s="2">
-        <v>368.45424674052299</v>
-      </c>
-      <c r="T3" s="2">
-        <v>186.11035803937114</v>
-      </c>
-      <c r="U3" s="2">
-        <v>335.75106020446805</v>
-      </c>
-      <c r="V3" s="2">
-        <v>375.64784889821624</v>
-      </c>
-      <c r="W3" s="2">
-        <v>493.59134201252942</v>
-      </c>
-      <c r="X3" s="2">
-        <v>356.41446027223805</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>306.67882261726754</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>404.76216927123636</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>355.01479603087103</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>320.01753142551485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
-        <v>463.56907523724072</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E7" s="1">
+        <v>68534.856999999989</v>
+      </c>
+      <c r="F7" s="1">
+        <v>89517.835999999996</v>
+      </c>
+      <c r="G7" s="1">
+        <v>117261.867</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44341.232000000004</v>
+      </c>
+      <c r="I7" s="1">
+        <v>105524.391</v>
+      </c>
+      <c r="J7" s="1">
+        <v>94059.817999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>56749.228999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <v>56509.777000000002</v>
+      </c>
+      <c r="M7" s="1">
+        <v>59689.875999999997</v>
+      </c>
+      <c r="N7" s="1">
+        <v>86086.157999999996</v>
+      </c>
+      <c r="O7" s="1">
+        <v>109052.58199999999</v>
+      </c>
+      <c r="P7" s="1">
+        <v>66213.277999999991</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>124717.15400000001</v>
+      </c>
+      <c r="R7" s="1">
+        <v>56827.245999999999</v>
+      </c>
+      <c r="S7" s="1">
+        <v>117517.546</v>
+      </c>
+      <c r="T7" s="1">
+        <v>105871.315</v>
+      </c>
+      <c r="U7" s="1">
+        <v>107443.83800000002</v>
+      </c>
+      <c r="V7" s="1">
+        <v>77190.206999999995</v>
+      </c>
+      <c r="W7" s="1">
+        <v>89500.114000000001</v>
+      </c>
+      <c r="X7" s="1">
+        <v>76653.420000000013</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>32947.377999999997</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>82423.368000000002</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>99832.192999999999</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>94535.670999999988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1">
+        <v>4328.37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>150.38999999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>186.44</v>
+      </c>
+      <c r="G8" s="1">
+        <v>238.19</v>
+      </c>
+      <c r="H8" s="1">
+        <v>125.69</v>
+      </c>
+      <c r="I8" s="1">
+        <v>200.26999999999998</v>
+      </c>
+      <c r="J8" s="1">
+        <v>242.42999999999998</v>
+      </c>
+      <c r="K8" s="1">
+        <v>142.55000000000001</v>
+      </c>
+      <c r="L8" s="1">
+        <v>140.49</v>
+      </c>
+      <c r="M8" s="1">
+        <v>166.92000000000002</v>
+      </c>
+      <c r="N8" s="1">
+        <v>188.83999999999997</v>
+      </c>
+      <c r="O8" s="1">
+        <v>251.19</v>
+      </c>
+      <c r="P8" s="1">
+        <v>130.77000000000001</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>256.62</v>
+      </c>
+      <c r="R8" s="1">
+        <v>119.06</v>
+      </c>
+      <c r="S8" s="1">
+        <v>215.82</v>
+      </c>
+      <c r="T8" s="1">
+        <v>148.34</v>
+      </c>
+      <c r="U8" s="1">
+        <v>174.20999999999998</v>
+      </c>
+      <c r="V8" s="1">
+        <v>149.45999999999998</v>
+      </c>
+      <c r="W8" s="1">
+        <v>165.9</v>
+      </c>
+      <c r="X8" s="1">
+        <v>234.26</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>104.24000000000001</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>213.18</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>191.22</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>191.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1">
+        <v>466.4574310883774</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.75000000000006</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.74999999999997</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.75000000000006</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.05</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.25</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.75</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.25</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.35000000000008</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.20000000000005</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>293.99999999999994</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.15000000000003</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.8</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>668.00000000000011</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.25</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>742</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.75000000000011</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37249999999995</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>3934.82</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>174.4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>202.38</v>
-      </c>
-      <c r="G5" s="2">
-        <v>179.92000000000002</v>
-      </c>
-      <c r="H5" s="2">
-        <v>170.22000000000003</v>
-      </c>
-      <c r="I5" s="2">
-        <v>150.29999999999998</v>
-      </c>
-      <c r="J5" s="2">
-        <v>150.44999999999999</v>
-      </c>
-      <c r="K5" s="2">
-        <v>127.56</v>
-      </c>
-      <c r="L5" s="2">
-        <v>182.5</v>
-      </c>
-      <c r="M5" s="2">
-        <v>162.85</v>
-      </c>
-      <c r="N5" s="2">
-        <v>116.62</v>
-      </c>
-      <c r="O5" s="2">
-        <v>189.55</v>
-      </c>
-      <c r="P5" s="2">
-        <v>169.24</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>183.64</v>
-      </c>
-      <c r="R5" s="2">
-        <v>179.17999999999998</v>
-      </c>
-      <c r="S5" s="2">
-        <v>132.69</v>
-      </c>
-      <c r="T5" s="2">
-        <v>151.38</v>
-      </c>
-      <c r="U5" s="2">
-        <v>211.27999999999997</v>
-      </c>
-      <c r="V5" s="2">
-        <v>142.94999999999999</v>
-      </c>
-      <c r="W5" s="2">
-        <v>204.32</v>
-      </c>
-      <c r="X5" s="2">
-        <v>157.94999999999999</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>180.57</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>129.26</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>136.05000000000001</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>149.56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>-57.242492826863611</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E9" s="1">
+        <v>455.71418977325618</v>
+      </c>
+      <c r="F9" s="1">
+        <v>480.14286633769575</v>
+      </c>
+      <c r="G9" s="1">
+        <v>492.30390444603046</v>
+      </c>
+      <c r="H9" s="1">
+        <v>352.78249661866499</v>
+      </c>
+      <c r="I9" s="1">
+        <v>526.91062565536527</v>
+      </c>
+      <c r="J9" s="1">
+        <v>387.98753454605458</v>
+      </c>
+      <c r="K9" s="1">
+        <v>398.10051911609958</v>
+      </c>
+      <c r="L9" s="1">
+        <v>402.23344722044271</v>
+      </c>
+      <c r="M9" s="1">
+        <v>357.5957105200095</v>
+      </c>
+      <c r="N9" s="1">
+        <v>455.86823766151241</v>
+      </c>
+      <c r="O9" s="1">
+        <v>434.14380349536208</v>
+      </c>
+      <c r="P9" s="1">
+        <v>506.33385333027439</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>485.99935312914039</v>
+      </c>
+      <c r="R9" s="1">
+        <v>477.2992272803628</v>
+      </c>
+      <c r="S9" s="1">
+        <v>544.51647669354099</v>
+      </c>
+      <c r="T9" s="1">
+        <v>713.70712552244845</v>
+      </c>
+      <c r="U9" s="1">
+        <v>616.74896963434958</v>
+      </c>
+      <c r="V9" s="1">
+        <v>516.46063829787238</v>
+      </c>
+      <c r="W9" s="1">
+        <v>539.4823025919228</v>
+      </c>
+      <c r="X9" s="1">
+        <v>327.21514556475717</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>316.07231389102066</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>386.6374331550802</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>522.08028971864871</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>492.65553702642137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>45001</v>
+      </c>
+      <c r="C10">
+        <v>439.01328515122322</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2">
-        <v>130.77892775229361</v>
-      </c>
-      <c r="F6" s="2">
-        <v>214.75548473169289</v>
-      </c>
-      <c r="G6" s="2">
-        <v>73.12696198310357</v>
-      </c>
-      <c r="H6" s="2">
-        <v>42.882322876277755</v>
-      </c>
-      <c r="I6" s="2">
-        <v>281.42024617431809</v>
-      </c>
-      <c r="J6" s="2">
-        <v>163.09543702226648</v>
-      </c>
-      <c r="K6" s="2">
-        <v>185.32755566008149</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-163.78225753424658</v>
-      </c>
-      <c r="M6" s="2">
-        <v>210.96393306723974</v>
-      </c>
-      <c r="N6" s="2">
-        <v>-123.4378922997771</v>
-      </c>
-      <c r="O6" s="2">
-        <v>-165.30050382484848</v>
-      </c>
-      <c r="P6" s="2">
-        <v>134.61665090995029</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>230.29800697015918</v>
-      </c>
-      <c r="R6" s="2">
-        <v>-79.940205380064725</v>
-      </c>
-      <c r="S6" s="2">
-        <v>-7.6957532594770441</v>
-      </c>
-      <c r="T6" s="2">
-        <v>-291.68964196062888</v>
-      </c>
-      <c r="U6" s="2">
-        <v>-249.74893979553195</v>
-      </c>
-      <c r="V6" s="2">
-        <v>-292.35215110178387</v>
-      </c>
-      <c r="W6" s="2">
-        <v>-262.65865798747058</v>
-      </c>
-      <c r="X6" s="2">
-        <v>-393.08553972776195</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>-435.32117738273246</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>-264.98783072876375</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>-200.35770396912892</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>-109.13246857448513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
-        <v>2019000.351</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2">
-        <v>68534.856999999989</v>
-      </c>
-      <c r="F7" s="2">
-        <v>89517.835999999996</v>
-      </c>
-      <c r="G7" s="2">
-        <v>117261.867</v>
-      </c>
-      <c r="H7" s="2">
-        <v>44341.232000000004</v>
-      </c>
-      <c r="I7" s="2">
-        <v>105524.391</v>
-      </c>
-      <c r="J7" s="2">
-        <v>94059.817999999999</v>
-      </c>
-      <c r="K7" s="2">
-        <v>56749.228999999999</v>
-      </c>
-      <c r="L7" s="2">
-        <v>56509.777000000002</v>
-      </c>
-      <c r="M7" s="2">
-        <v>59689.875999999997</v>
-      </c>
-      <c r="N7" s="2">
-        <v>86086.157999999996</v>
-      </c>
-      <c r="O7" s="2">
-        <v>109052.58199999999</v>
-      </c>
-      <c r="P7" s="2">
-        <v>66213.277999999991</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>124717.15400000001</v>
-      </c>
-      <c r="R7" s="2">
-        <v>56827.245999999999</v>
-      </c>
-      <c r="S7" s="2">
-        <v>117517.546</v>
-      </c>
-      <c r="T7" s="2">
-        <v>105871.315</v>
-      </c>
-      <c r="U7" s="2">
-        <v>107443.83800000002</v>
-      </c>
-      <c r="V7" s="2">
-        <v>77190.206999999995</v>
-      </c>
-      <c r="W7" s="2">
-        <v>89500.114000000001</v>
-      </c>
-      <c r="X7" s="2">
-        <v>76653.420000000013</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>32947.377999999997</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>82423.368000000002</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>99832.192999999999</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>94535.670999999988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2">
-        <v>466.4574310883774</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2">
-        <v>455.71418977325618</v>
-      </c>
-      <c r="F8" s="2">
-        <v>480.14286633769575</v>
-      </c>
-      <c r="G8" s="2">
-        <v>492.30390444603046</v>
-      </c>
-      <c r="H8" s="2">
-        <v>352.78249661866499</v>
-      </c>
-      <c r="I8" s="2">
-        <v>526.91062565536527</v>
-      </c>
-      <c r="J8" s="2">
-        <v>387.98753454605458</v>
-      </c>
-      <c r="K8" s="2">
-        <v>398.10051911609958</v>
-      </c>
-      <c r="L8" s="2">
-        <v>402.23344722044271</v>
-      </c>
-      <c r="M8" s="2">
-        <v>357.5957105200095</v>
-      </c>
-      <c r="N8" s="2">
-        <v>455.86823766151241</v>
-      </c>
-      <c r="O8" s="2">
-        <v>434.14380349536208</v>
-      </c>
-      <c r="P8" s="2">
-        <v>506.33385333027439</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>485.99935312914039</v>
-      </c>
-      <c r="R8" s="2">
-        <v>477.2992272803628</v>
-      </c>
-      <c r="S8" s="2">
-        <v>544.51647669354099</v>
-      </c>
-      <c r="T8" s="2">
-        <v>713.70712552244845</v>
-      </c>
-      <c r="U8" s="2">
-        <v>616.74896963434958</v>
-      </c>
-      <c r="V8" s="2">
-        <v>516.46063829787238</v>
-      </c>
-      <c r="W8" s="2">
-        <v>539.4823025919228</v>
-      </c>
-      <c r="X8" s="2">
-        <v>327.21514556475717</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>316.07231389102066</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>386.6374331550802</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>522.08028971864871</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>492.65553702642137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2">
-        <v>439.01328515122322</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="E10">
         <v>429.25159335727113</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10">
         <v>613.88642995065425</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10">
         <v>490.47706799193924</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10">
         <v>260.16094836502509</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10">
         <v>427.11655564987279</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J10">
         <v>427.55466124242048</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K10">
         <v>422.15457699052968</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L10">
         <v>556.82481689088195</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M10">
         <v>440.65028846153842</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N10">
         <v>492.85422341664901</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O10">
         <v>377.45896542457893</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P10">
         <v>388.1292194310621</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q10">
         <v>491.29266132803366</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R10">
         <v>504.05185326726024</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S10">
         <v>526.28341766286724</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T10">
         <v>428.08218973304565</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U10">
         <v>325.554591154354</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V10">
         <v>378.20987086845986</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W10">
         <v>304.93358589511752</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X10">
         <v>323.56888969521043</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y10">
         <v>337.83270937260164</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z10">
         <v>512.09199373768649</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA10">
         <v>502.1511837150926</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB10" s="1">
         <v>462.13966960237644</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>45001</v>
-      </c>
-      <c r="C10">
-        <v>4328.37</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>150.38999999999999</v>
-      </c>
-      <c r="F10">
-        <v>186.44</v>
-      </c>
-      <c r="G10">
-        <v>238.19</v>
-      </c>
-      <c r="H10">
-        <v>125.69</v>
-      </c>
-      <c r="I10">
-        <v>200.26999999999998</v>
-      </c>
-      <c r="J10">
-        <v>242.42999999999998</v>
-      </c>
-      <c r="K10">
-        <v>142.55000000000001</v>
-      </c>
-      <c r="L10">
-        <v>140.49</v>
-      </c>
-      <c r="M10">
-        <v>166.92000000000002</v>
-      </c>
-      <c r="N10">
-        <v>188.83999999999997</v>
-      </c>
-      <c r="O10">
-        <v>251.19</v>
-      </c>
-      <c r="P10">
-        <v>130.77000000000001</v>
-      </c>
-      <c r="Q10">
-        <v>256.62</v>
-      </c>
-      <c r="R10">
-        <v>119.06</v>
-      </c>
-      <c r="S10">
-        <v>215.82</v>
-      </c>
-      <c r="T10">
-        <v>148.34</v>
-      </c>
-      <c r="U10">
-        <v>174.20999999999998</v>
-      </c>
-      <c r="V10">
-        <v>149.45999999999998</v>
-      </c>
-      <c r="W10">
-        <v>165.9</v>
-      </c>
-      <c r="X10">
-        <v>234.26</v>
-      </c>
-      <c r="Y10">
-        <v>104.24000000000001</v>
-      </c>
-      <c r="Z10">
-        <v>213.18</v>
-      </c>
-      <c r="AA10">
-        <v>191.22</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>191.89</v>
-      </c>
-    </row>
     <row r="11" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45001</v>
       </c>
       <c r="C11">
         <v>27.44414593715419</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E11">
         <v>26.462596415985047</v>
@@ -1556,7 +1627,7 @@
       <c r="AA11">
         <v>19.929106003556115</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11" s="1">
         <v>30.515867424044927</v>
       </c>
     </row>
@@ -1579,440 +1650,440 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>1598821.9630000002</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>83028.165000000008</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>104530.38</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>64389.222999999998</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>50322.534</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>81713.638000000006</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>70086.445999999996</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>74798.320999999996</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>59397.862999999998</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>120462.41399999999</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>44993.407999999996</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>53652.031999999992</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>90343.13</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>96282.08600000001</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>42118.013999999996</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>48890.193999999996</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>28173.386000000002</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>70937.483999999997</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>53698.860000000008</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>100850.58300000001</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>56295.663999999997</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>55376.994999999995</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>52319.558000000005</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>48299.763000000006</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>47861.822</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>1824060.8686249997</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1">
         <v>60220.320000000007</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>61068.165000000008</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>51232.22</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>43023.105000000003</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>39416.174999999996</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>45548.737500000003</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>51157.938000000002</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>89288.125</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>86106.9375</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>59388.735000000001</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>84984.742500000022</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>67560.608000000007</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>53990.159999999989</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>56441.7</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>49911.343500000003</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>72329.364000000001</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>123704.43999999999</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>95490.6</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>154517</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>118383.52499999999</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>133982.94</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>86571.885000000009</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>75558.428625</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>64183.673999999999</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1">
         <v>22807.845000000001</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>43462.214999999997</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>13157.002999999997</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>7299.4289999999964</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>42297.463000000011</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>24537.708499999993</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>23640.382999999994</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>-29890.262000000002</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>34355.47649999999</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>-14395.327000000005</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>-31332.71050000003</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>22782.521999999997</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>42291.926000000021</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>-14323.686000000002</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>-1021.1495000000068</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>-44155.978000000003</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>-52766.955999999991</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>-41791.74</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="1">
         <v>-53666.416999999987</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="1">
         <v>-62087.860999999997</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>-78605.945000000007</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="1">
         <v>-34252.327000000005</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="1">
         <v>-27258.665624999994</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="1">
         <v>-16321.851999999999</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
         <v>2019000.351</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
         <v>68534.856999999989</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>89517.835999999996</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>117261.867</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>44341.232000000004</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>105524.391</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>94059.817999999999</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>56749.228999999999</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>56509.777000000002</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>59689.875999999997</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>86086.157999999996</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>109052.58199999999</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>66213.277999999991</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>124717.15400000001</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>56827.245999999999</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>117517.546</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>105871.315</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>107443.83800000002</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>77190.206999999995</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="1">
         <v>89500.114000000001</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="1">
         <v>76653.420000000013</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="1">
         <v>32947.377999999997</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>82423.368000000002</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>99832.192999999999</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="1">
         <v>94535.670999999988</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45001</v>
       </c>
       <c r="C6">
         <v>1900211.9330499999</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E6">
         <v>64555.147125000003</v>
@@ -2083,16 +2154,16 @@
       <c r="AA6">
         <v>96021.349350000004</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="1">
         <v>88679.981200000009</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E7">
         <v>3979.7098749999859</v>
@@ -2163,12 +2234,12 @@
       <c r="AA7">
         <v>3810.8436499999953</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>5855.6897999999783</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2189,596 +2260,596 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="29.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>3934.82</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>174.4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>202.38</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>179.92000000000002</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>170.22000000000003</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>150.29999999999998</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>150.44999999999999</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>127.56</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>182.5</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>162.85</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>116.62</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>189.55</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>169.24</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>183.64</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>179.17999999999998</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>132.69</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>151.38</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>211.27999999999997</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>142.94999999999999</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>204.32</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>157.94999999999999</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>180.57</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>129.26</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>136.05000000000001</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>149.56</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>406.32658241037711</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
         <v>476.07892775229362</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>516.50548473169295</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>357.87696198310357</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>295.63232287627773</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>543.67024617431809</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>465.84543702226654</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>586.3775556600815</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>325.46774246575342</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>739.71393306723974</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>385.8121077002229</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>283.0494961751516</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>533.81665090995034</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>524.29800697015912</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>235.05979461993527</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>368.45424674052299</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>186.11035803937114</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>335.75106020446805</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>375.64784889821624</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>493.59134201252942</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>356.41446027223805</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>306.67882261726754</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>404.76216927123636</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>355.01479603087103</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>320.01753142551485</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>463.56907523724072</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1">
+        <v>345.3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>301.75000000000006</v>
+      </c>
+      <c r="G4" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H4" s="1">
+        <v>252.74999999999997</v>
+      </c>
+      <c r="I4" s="1">
+        <v>262.25</v>
+      </c>
+      <c r="J4" s="1">
+        <v>302.75000000000006</v>
+      </c>
+      <c r="K4" s="1">
+        <v>401.05</v>
+      </c>
+      <c r="L4" s="1">
+        <v>489.25</v>
+      </c>
+      <c r="M4" s="1">
+        <v>528.75</v>
+      </c>
+      <c r="N4" s="1">
+        <v>509.25</v>
+      </c>
+      <c r="O4" s="1">
+        <v>448.35000000000008</v>
+      </c>
+      <c r="P4" s="1">
+        <v>399.20000000000005</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>293.99999999999994</v>
+      </c>
+      <c r="R4" s="1">
+        <v>315</v>
+      </c>
+      <c r="S4" s="1">
+        <v>376.15000000000003</v>
+      </c>
+      <c r="T4" s="1">
+        <v>477.8</v>
+      </c>
+      <c r="U4" s="1">
+        <v>585.5</v>
+      </c>
+      <c r="V4" s="1">
+        <v>668.00000000000011</v>
+      </c>
+      <c r="W4" s="1">
+        <v>756.25</v>
+      </c>
+      <c r="X4" s="1">
+        <v>749.5</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>742</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>669.75000000000011</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>555.37249999999995</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>429.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>4328.37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>150.38999999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>186.44</v>
+      </c>
+      <c r="G5" s="1">
+        <v>238.19</v>
+      </c>
+      <c r="H5" s="1">
+        <v>125.69</v>
+      </c>
+      <c r="I5" s="1">
+        <v>200.26999999999998</v>
+      </c>
+      <c r="J5" s="1">
+        <v>242.42999999999998</v>
+      </c>
+      <c r="K5" s="1">
+        <v>142.55000000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>140.49</v>
+      </c>
+      <c r="M5" s="1">
+        <v>166.92000000000002</v>
+      </c>
+      <c r="N5" s="1">
+        <v>188.83999999999997</v>
+      </c>
+      <c r="O5" s="1">
+        <v>251.19</v>
+      </c>
+      <c r="P5" s="1">
+        <v>130.77000000000001</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>256.62</v>
+      </c>
+      <c r="R5" s="1">
+        <v>119.06</v>
+      </c>
+      <c r="S5" s="1">
+        <v>215.82</v>
+      </c>
+      <c r="T5" s="1">
+        <v>148.34</v>
+      </c>
+      <c r="U5" s="1">
+        <v>174.20999999999998</v>
+      </c>
+      <c r="V5" s="1">
+        <v>149.45999999999998</v>
+      </c>
+      <c r="W5" s="1">
+        <v>165.9</v>
+      </c>
+      <c r="X5" s="1">
+        <v>234.26</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>104.24000000000001</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>213.18</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>191.22</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>191.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>466.4574310883774</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.75000000000006</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.74999999999997</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.75000000000006</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.05</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.25</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.75</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.25</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.35000000000008</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.20000000000005</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>293.99999999999994</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.15000000000003</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.8</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>668.00000000000011</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.25</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>742</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.75000000000011</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37249999999995</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="E6" s="1">
+        <v>455.71418977325618</v>
+      </c>
+      <c r="F6" s="1">
+        <v>480.14286633769575</v>
+      </c>
+      <c r="G6" s="1">
+        <v>492.30390444603046</v>
+      </c>
+      <c r="H6" s="1">
+        <v>352.78249661866499</v>
+      </c>
+      <c r="I6" s="1">
+        <v>526.91062565536527</v>
+      </c>
+      <c r="J6" s="1">
+        <v>387.98753454605458</v>
+      </c>
+      <c r="K6" s="1">
+        <v>398.10051911609958</v>
+      </c>
+      <c r="L6" s="1">
+        <v>402.23344722044271</v>
+      </c>
+      <c r="M6" s="1">
+        <v>357.5957105200095</v>
+      </c>
+      <c r="N6" s="1">
+        <v>455.86823766151241</v>
+      </c>
+      <c r="O6" s="1">
+        <v>434.14380349536208</v>
+      </c>
+      <c r="P6" s="1">
+        <v>506.33385333027439</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>485.99935312914039</v>
+      </c>
+      <c r="R6" s="1">
+        <v>477.2992272803628</v>
+      </c>
+      <c r="S6" s="1">
+        <v>544.51647669354099</v>
+      </c>
+      <c r="T6" s="1">
+        <v>713.70712552244845</v>
+      </c>
+      <c r="U6" s="1">
+        <v>616.74896963434958</v>
+      </c>
+      <c r="V6" s="1">
+        <v>516.46063829787238</v>
+      </c>
+      <c r="W6" s="1">
+        <v>539.4823025919228</v>
+      </c>
+      <c r="X6" s="1">
+        <v>327.21514556475717</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>316.07231389102066</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>386.6374331550802</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>522.08028971864871</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>492.65553702642137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>4328.37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>150.38999999999999</v>
-      </c>
-      <c r="F5" s="2">
-        <v>186.44</v>
-      </c>
-      <c r="G5" s="2">
-        <v>238.19</v>
-      </c>
-      <c r="H5" s="2">
-        <v>125.69</v>
-      </c>
-      <c r="I5" s="2">
-        <v>200.26999999999998</v>
-      </c>
-      <c r="J5" s="2">
-        <v>242.42999999999998</v>
-      </c>
-      <c r="K5" s="2">
-        <v>142.55000000000001</v>
-      </c>
-      <c r="L5" s="2">
-        <v>140.49</v>
-      </c>
-      <c r="M5" s="2">
-        <v>166.92000000000002</v>
-      </c>
-      <c r="N5" s="2">
-        <v>188.83999999999997</v>
-      </c>
-      <c r="O5" s="2">
-        <v>251.19</v>
-      </c>
-      <c r="P5" s="2">
-        <v>130.77000000000001</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>256.62</v>
-      </c>
-      <c r="R5" s="2">
-        <v>119.06</v>
-      </c>
-      <c r="S5" s="2">
-        <v>215.82</v>
-      </c>
-      <c r="T5" s="2">
-        <v>148.34</v>
-      </c>
-      <c r="U5" s="2">
-        <v>174.20999999999998</v>
-      </c>
-      <c r="V5" s="2">
-        <v>149.45999999999998</v>
-      </c>
-      <c r="W5" s="2">
-        <v>165.9</v>
-      </c>
-      <c r="X5" s="2">
-        <v>234.26</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>104.24000000000001</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>213.18</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>191.22</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>191.89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>466.4574310883774</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2">
-        <v>455.71418977325618</v>
-      </c>
-      <c r="F6" s="2">
-        <v>480.14286633769575</v>
-      </c>
-      <c r="G6" s="2">
-        <v>492.30390444603046</v>
-      </c>
-      <c r="H6" s="2">
-        <v>352.78249661866499</v>
-      </c>
-      <c r="I6" s="2">
-        <v>526.91062565536527</v>
-      </c>
-      <c r="J6" s="2">
-        <v>387.98753454605458</v>
-      </c>
-      <c r="K6" s="2">
-        <v>398.10051911609958</v>
-      </c>
-      <c r="L6" s="2">
-        <v>402.23344722044271</v>
-      </c>
-      <c r="M6" s="2">
-        <v>357.5957105200095</v>
-      </c>
-      <c r="N6" s="2">
-        <v>455.86823766151241</v>
-      </c>
-      <c r="O6" s="2">
-        <v>434.14380349536208</v>
-      </c>
-      <c r="P6" s="2">
-        <v>506.33385333027439</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>485.99935312914039</v>
-      </c>
-      <c r="R6" s="2">
-        <v>477.2992272803628</v>
-      </c>
-      <c r="S6" s="2">
-        <v>544.51647669354099</v>
-      </c>
-      <c r="T6" s="2">
-        <v>713.70712552244845</v>
-      </c>
-      <c r="U6" s="2">
-        <v>616.74896963434958</v>
-      </c>
-      <c r="V6" s="2">
-        <v>516.46063829787238</v>
-      </c>
-      <c r="W6" s="2">
-        <v>539.4823025919228</v>
-      </c>
-      <c r="X6" s="2">
-        <v>327.21514556475717</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>316.07231389102066</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>386.6374331550802</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>522.08028971864871</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>492.65553702642137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
         <v>439.01328515122322</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1">
         <v>429.25159335727113</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>613.88642995065425</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>490.47706799193924</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>260.16094836502509</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>427.11655564987279</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>427.55466124242048</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>422.15457699052968</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>556.82481689088195</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>440.65028846153842</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>492.85422341664901</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>377.45896542457893</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>388.1292194310621</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>491.29266132803366</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>504.05185326726024</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>526.28341766286724</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <v>428.08218973304565</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>325.554591154354</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="1">
         <v>378.20987086845986</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="1">
         <v>304.93358589511752</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="1">
         <v>323.56888969521043</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="1">
         <v>337.83270937260164</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="1">
         <v>512.09199373768649</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="1">
         <v>502.1511837150926</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>462.13966960237644</v>
       </c>
     </row>
@@ -2801,7 +2872,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2812,56 +2883,56 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3">
         <v>1019.4599999999998</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>1675.109999999999</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>2804.4399999999982</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>2764.179999999998</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3">
         <v>12.337366077749637</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>20.271953083494385</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>33.93895093783393</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>33.451729900922025</v>
       </c>
     </row>
@@ -2876,104 +2947,50 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" customWidth="1"/>
-    <col min="5" max="28" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="9.1796875"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" s="4">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/江西/导出模板/市场化,年度双边协商合同分析结果.xlsx
+++ b/江西/导出模板/市场化,年度双边协商合同分析结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5325703-0491-43E3-A372-941DFFCF93B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D97CC9B4-FECE-417E-9592-6291751A470F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -694,7 +694,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1631,6 +1631,421 @@
         <v>30.515867424044927</v>
       </c>
     </row>
+    <row r="12" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>3617822.3139999993</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>151563.022</v>
+      </c>
+      <c r="F12">
+        <v>194048.21600000001</v>
+      </c>
+      <c r="G12">
+        <v>181651.09</v>
+      </c>
+      <c r="H12">
+        <v>94663.766000000003</v>
+      </c>
+      <c r="I12">
+        <v>187238.02900000001</v>
+      </c>
+      <c r="J12">
+        <v>164146.264</v>
+      </c>
+      <c r="K12">
+        <v>131547.54999999999</v>
+      </c>
+      <c r="L12">
+        <v>115907.64</v>
+      </c>
+      <c r="M12">
+        <v>180152.28999999998</v>
+      </c>
+      <c r="N12">
+        <v>131079.56599999999</v>
+      </c>
+      <c r="O12">
+        <v>162704.614</v>
+      </c>
+      <c r="P12">
+        <v>156556.408</v>
+      </c>
+      <c r="Q12">
+        <v>220999.24000000002</v>
+      </c>
+      <c r="R12">
+        <v>98945.26</v>
+      </c>
+      <c r="S12">
+        <v>166407.74</v>
+      </c>
+      <c r="T12">
+        <v>134044.701</v>
+      </c>
+      <c r="U12">
+        <v>178381.32200000001</v>
+      </c>
+      <c r="V12">
+        <v>130889.067</v>
+      </c>
+      <c r="W12">
+        <v>190350.69700000001</v>
+      </c>
+      <c r="X12">
+        <v>132949.084</v>
+      </c>
+      <c r="Y12">
+        <v>88324.372999999992</v>
+      </c>
+      <c r="Z12">
+        <v>134742.92600000001</v>
+      </c>
+      <c r="AA12">
+        <v>148131.95600000001</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>142397.49299999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>8263.1900000000023</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>324.79000000000002</v>
+      </c>
+      <c r="F13">
+        <v>388.82</v>
+      </c>
+      <c r="G13">
+        <v>418.11</v>
+      </c>
+      <c r="H13">
+        <v>295.91000000000003</v>
+      </c>
+      <c r="I13">
+        <v>350.57</v>
+      </c>
+      <c r="J13">
+        <v>392.87999999999994</v>
+      </c>
+      <c r="K13">
+        <v>270.11</v>
+      </c>
+      <c r="L13">
+        <v>322.99</v>
+      </c>
+      <c r="M13">
+        <v>329.77</v>
+      </c>
+      <c r="N13">
+        <v>305.45999999999998</v>
+      </c>
+      <c r="O13">
+        <v>440.74</v>
+      </c>
+      <c r="P13">
+        <v>300.01</v>
+      </c>
+      <c r="Q13">
+        <v>440.26</v>
+      </c>
+      <c r="R13">
+        <v>298.24</v>
+      </c>
+      <c r="S13">
+        <v>348.51</v>
+      </c>
+      <c r="T13">
+        <v>299.72000000000003</v>
+      </c>
+      <c r="U13">
+        <v>385.49</v>
+      </c>
+      <c r="V13">
+        <v>292.40999999999997</v>
+      </c>
+      <c r="W13">
+        <v>370.21999999999997</v>
+      </c>
+      <c r="X13">
+        <v>392.21</v>
+      </c>
+      <c r="Y13">
+        <v>284.81</v>
+      </c>
+      <c r="Z13">
+        <v>342.44</v>
+      </c>
+      <c r="AA13">
+        <v>327.27</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>341.45000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>437.82392925734473</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>466.64928723174972</v>
+      </c>
+      <c r="F14">
+        <v>499.06953346021299</v>
+      </c>
+      <c r="G14">
+        <v>434.45765468417397</v>
+      </c>
+      <c r="H14">
+        <v>319.90728937852725</v>
+      </c>
+      <c r="I14">
+        <v>534.09598368371508</v>
+      </c>
+      <c r="J14">
+        <v>417.80254530645493</v>
+      </c>
+      <c r="K14">
+        <v>487.01473473769937</v>
+      </c>
+      <c r="L14">
+        <v>358.85829282640327</v>
+      </c>
+      <c r="M14">
+        <v>546.29678260605874</v>
+      </c>
+      <c r="N14">
+        <v>429.12186865710731</v>
+      </c>
+      <c r="O14">
+        <v>369.16234968462129</v>
+      </c>
+      <c r="P14">
+        <v>521.83729875670815</v>
+      </c>
+      <c r="Q14">
+        <v>501.97437877617779</v>
+      </c>
+      <c r="R14">
+        <v>331.76388143776819</v>
+      </c>
+      <c r="S14">
+        <v>477.48340076324922</v>
+      </c>
+      <c r="T14">
+        <v>447.23308754837842</v>
+      </c>
+      <c r="U14">
+        <v>462.73916833121484</v>
+      </c>
+      <c r="V14">
+        <v>447.62171950343696</v>
+      </c>
+      <c r="W14">
+        <v>514.1556290854088</v>
+      </c>
+      <c r="X14">
+        <v>338.97423319140256</v>
+      </c>
+      <c r="Y14">
+        <v>310.11682525192231</v>
+      </c>
+      <c r="Z14">
+        <v>393.4789335358019</v>
+      </c>
+      <c r="AA14">
+        <v>452.62919302105297</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>417.03761312051535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>450.70642229877308</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>384.17274893007789</v>
+      </c>
+      <c r="F15">
+        <v>451.42006841211878</v>
+      </c>
+      <c r="G15">
+        <v>401.94913497644154</v>
+      </c>
+      <c r="H15">
+        <v>255.89785610489676</v>
+      </c>
+      <c r="I15">
+        <v>356.43325897823547</v>
+      </c>
+      <c r="J15">
+        <v>379.76179501374469</v>
+      </c>
+      <c r="K15">
+        <v>412.1878973381215</v>
+      </c>
+      <c r="L15">
+        <v>518.64281719248277</v>
+      </c>
+      <c r="M15">
+        <v>484.1564837614095</v>
+      </c>
+      <c r="N15">
+        <v>499.11388250507434</v>
+      </c>
+      <c r="O15">
+        <v>407.94722517810953</v>
+      </c>
+      <c r="P15">
+        <v>394.37440760307999</v>
+      </c>
+      <c r="Q15">
+        <v>408.99850713214914</v>
+      </c>
+      <c r="R15">
+        <v>390.47114287151288</v>
+      </c>
+      <c r="S15">
+        <v>469.12235143898317</v>
+      </c>
+      <c r="T15">
+        <v>453.19323376818357</v>
+      </c>
+      <c r="U15">
+        <v>468.02590294171051</v>
+      </c>
+      <c r="V15">
+        <v>519.87909886802788</v>
+      </c>
+      <c r="W15">
+        <v>554.00972908000654</v>
+      </c>
+      <c r="X15">
+        <v>495.09898549246577</v>
+      </c>
+      <c r="Y15">
+        <v>594.07542440574423</v>
+      </c>
+      <c r="Z15">
+        <v>571.60278070610912</v>
+      </c>
+      <c r="AA15">
+        <v>524.27591277843987</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>447.68972089617802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>-12.882493041428347</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>82.476538301671837</v>
+      </c>
+      <c r="F16">
+        <v>47.649465048094214</v>
+      </c>
+      <c r="G16">
+        <v>32.508519707732432</v>
+      </c>
+      <c r="H16">
+        <v>64.009433273630492</v>
+      </c>
+      <c r="I16">
+        <v>177.6627247054796</v>
+      </c>
+      <c r="J16">
+        <v>38.040750292710243</v>
+      </c>
+      <c r="K16">
+        <v>74.826837399577869</v>
+      </c>
+      <c r="L16">
+        <v>-159.78452436607949</v>
+      </c>
+      <c r="M16">
+        <v>62.140298844649237</v>
+      </c>
+      <c r="N16">
+        <v>-69.99201384796703</v>
+      </c>
+      <c r="O16">
+        <v>-38.784875493488244</v>
+      </c>
+      <c r="P16">
+        <v>127.46289115362816</v>
+      </c>
+      <c r="Q16">
+        <v>92.975871644028643</v>
+      </c>
+      <c r="R16">
+        <v>-58.707261433744691</v>
+      </c>
+      <c r="S16">
+        <v>8.3610493242660482</v>
+      </c>
+      <c r="T16">
+        <v>-5.9601462198051536</v>
+      </c>
+      <c r="U16">
+        <v>-5.2867346104956709</v>
+      </c>
+      <c r="V16">
+        <v>-72.257379364590918</v>
+      </c>
+      <c r="W16">
+        <v>-39.854099994597732</v>
+      </c>
+      <c r="X16">
+        <v>-156.12475230106321</v>
+      </c>
+      <c r="Y16">
+        <v>-283.95859915382192</v>
+      </c>
+      <c r="Z16">
+        <v>-178.12384717030722</v>
+      </c>
+      <c r="AA16">
+        <v>-71.646719757386904</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>-30.652107775662671</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,7 +2057,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2239,7 +2654,250 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>3617822.3139999993</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>151563.022</v>
+      </c>
+      <c r="F8">
+        <v>194048.21600000001</v>
+      </c>
+      <c r="G8">
+        <v>181651.09</v>
+      </c>
+      <c r="H8">
+        <v>94663.766000000003</v>
+      </c>
+      <c r="I8">
+        <v>187238.02900000001</v>
+      </c>
+      <c r="J8">
+        <v>164146.264</v>
+      </c>
+      <c r="K8">
+        <v>131547.54999999999</v>
+      </c>
+      <c r="L8">
+        <v>115907.64</v>
+      </c>
+      <c r="M8">
+        <v>180152.28999999998</v>
+      </c>
+      <c r="N8">
+        <v>131079.56599999999</v>
+      </c>
+      <c r="O8">
+        <v>162704.614</v>
+      </c>
+      <c r="P8">
+        <v>156556.408</v>
+      </c>
+      <c r="Q8">
+        <v>220999.24000000002</v>
+      </c>
+      <c r="R8">
+        <v>98945.26</v>
+      </c>
+      <c r="S8">
+        <v>166407.74</v>
+      </c>
+      <c r="T8">
+        <v>134044.701</v>
+      </c>
+      <c r="U8">
+        <v>178381.32200000001</v>
+      </c>
+      <c r="V8">
+        <v>130889.067</v>
+      </c>
+      <c r="W8">
+        <v>190350.69700000001</v>
+      </c>
+      <c r="X8">
+        <v>132949.084</v>
+      </c>
+      <c r="Y8">
+        <v>88324.372999999992</v>
+      </c>
+      <c r="Z8">
+        <v>134742.92600000001</v>
+      </c>
+      <c r="AA8">
+        <v>148131.95600000001</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>142397.49299999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>3724272.8016749998</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>124775.467125</v>
+      </c>
+      <c r="F9">
+        <v>175521.15100000001</v>
+      </c>
+      <c r="G9">
+        <v>168058.95282499999</v>
+      </c>
+      <c r="H9">
+        <v>75722.734600000011</v>
+      </c>
+      <c r="I9">
+        <v>124954.8076</v>
+      </c>
+      <c r="J9">
+        <v>149200.814025</v>
+      </c>
+      <c r="K9">
+        <v>111336.07295</v>
+      </c>
+      <c r="L9">
+        <v>167516.44352500001</v>
+      </c>
+      <c r="M9">
+        <v>159660.28365</v>
+      </c>
+      <c r="N9">
+        <v>152459.32655</v>
+      </c>
+      <c r="O9">
+        <v>179798.66002499999</v>
+      </c>
+      <c r="P9">
+        <v>118316.26602500002</v>
+      </c>
+      <c r="Q9">
+        <v>180065.68274999998</v>
+      </c>
+      <c r="R9">
+        <v>116454.11365</v>
+      </c>
+      <c r="S9">
+        <v>163493.83070000002</v>
+      </c>
+      <c r="T9">
+        <v>135831.07602499999</v>
+      </c>
+      <c r="U9">
+        <v>180419.30532499999</v>
+      </c>
+      <c r="V9">
+        <v>152017.84730000002</v>
+      </c>
+      <c r="W9">
+        <v>205105.48190000001</v>
+      </c>
+      <c r="X9">
+        <v>194182.77309999999</v>
+      </c>
+      <c r="Y9">
+        <v>169198.621625</v>
+      </c>
+      <c r="Z9">
+        <v>195739.65622500001</v>
+      </c>
+      <c r="AA9">
+        <v>171579.777975</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>152863.65520000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>26787.554875000002</v>
+      </c>
+      <c r="F10">
+        <v>18527.065000000002</v>
+      </c>
+      <c r="G10">
+        <v>13592.137175000011</v>
+      </c>
+      <c r="H10">
+        <v>18941.031399999993</v>
+      </c>
+      <c r="I10">
+        <v>62283.221400000009</v>
+      </c>
+      <c r="J10">
+        <v>14945.449974999996</v>
+      </c>
+      <c r="K10">
+        <v>20211.477049999987</v>
+      </c>
+      <c r="L10">
+        <v>-51608.80352500001</v>
+      </c>
+      <c r="M10">
+        <v>20492.006349999981</v>
+      </c>
+      <c r="N10">
+        <v>-21379.760550000006</v>
+      </c>
+      <c r="O10">
+        <v>-17094.046024999989</v>
+      </c>
+      <c r="P10">
+        <v>38240.141974999977</v>
+      </c>
+      <c r="Q10">
+        <v>40933.557250000042</v>
+      </c>
+      <c r="R10">
+        <v>-17508.853650000005</v>
+      </c>
+      <c r="S10">
+        <v>2913.9092999999702</v>
+      </c>
+      <c r="T10">
+        <v>-1786.3750249999866</v>
+      </c>
+      <c r="U10">
+        <v>-2037.9833249999792</v>
+      </c>
+      <c r="V10">
+        <v>-21128.780300000028</v>
+      </c>
+      <c r="W10">
+        <v>-14754.784899999999</v>
+      </c>
+      <c r="X10">
+        <v>-61233.689099999989</v>
+      </c>
+      <c r="Y10">
+        <v>-80874.248625000007</v>
+      </c>
+      <c r="Z10">
+        <v>-60996.730225000007</v>
+      </c>
+      <c r="AA10">
+        <v>-23447.821974999999</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-10466.162200000021</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2252,7 +2910,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2851,6 +3509,255 @@
       </c>
       <c r="AB7" s="1">
         <v>462.13966960237644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>8263.1900000000023</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>324.79000000000002</v>
+      </c>
+      <c r="F8">
+        <v>388.82</v>
+      </c>
+      <c r="G8">
+        <v>418.11</v>
+      </c>
+      <c r="H8">
+        <v>295.91000000000003</v>
+      </c>
+      <c r="I8">
+        <v>350.57</v>
+      </c>
+      <c r="J8">
+        <v>392.87999999999994</v>
+      </c>
+      <c r="K8">
+        <v>270.11</v>
+      </c>
+      <c r="L8">
+        <v>322.99</v>
+      </c>
+      <c r="M8">
+        <v>329.77</v>
+      </c>
+      <c r="N8">
+        <v>305.45999999999998</v>
+      </c>
+      <c r="O8">
+        <v>440.74</v>
+      </c>
+      <c r="P8">
+        <v>300.01</v>
+      </c>
+      <c r="Q8">
+        <v>440.26</v>
+      </c>
+      <c r="R8">
+        <v>298.24</v>
+      </c>
+      <c r="S8">
+        <v>348.51</v>
+      </c>
+      <c r="T8">
+        <v>299.72000000000003</v>
+      </c>
+      <c r="U8">
+        <v>385.49</v>
+      </c>
+      <c r="V8">
+        <v>292.40999999999997</v>
+      </c>
+      <c r="W8">
+        <v>370.21999999999997</v>
+      </c>
+      <c r="X8">
+        <v>392.21</v>
+      </c>
+      <c r="Y8">
+        <v>284.81</v>
+      </c>
+      <c r="Z8">
+        <v>342.44</v>
+      </c>
+      <c r="AA8">
+        <v>327.27</v>
+      </c>
+      <c r="AB8">
+        <v>341.45000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>437.82392925734473</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>466.64928723174972</v>
+      </c>
+      <c r="F9">
+        <v>499.06953346021299</v>
+      </c>
+      <c r="G9">
+        <v>434.45765468417397</v>
+      </c>
+      <c r="H9">
+        <v>319.90728937852725</v>
+      </c>
+      <c r="I9">
+        <v>534.09598368371508</v>
+      </c>
+      <c r="J9">
+        <v>417.80254530645493</v>
+      </c>
+      <c r="K9">
+        <v>487.01473473769937</v>
+      </c>
+      <c r="L9">
+        <v>358.85829282640327</v>
+      </c>
+      <c r="M9">
+        <v>546.29678260605874</v>
+      </c>
+      <c r="N9">
+        <v>429.12186865710731</v>
+      </c>
+      <c r="O9">
+        <v>369.16234968462129</v>
+      </c>
+      <c r="P9">
+        <v>521.83729875670815</v>
+      </c>
+      <c r="Q9">
+        <v>501.97437877617779</v>
+      </c>
+      <c r="R9">
+        <v>331.76388143776819</v>
+      </c>
+      <c r="S9">
+        <v>477.48340076324922</v>
+      </c>
+      <c r="T9">
+        <v>447.23308754837842</v>
+      </c>
+      <c r="U9">
+        <v>462.73916833121484</v>
+      </c>
+      <c r="V9">
+        <v>447.62171950343696</v>
+      </c>
+      <c r="W9">
+        <v>514.1556290854088</v>
+      </c>
+      <c r="X9">
+        <v>338.97423319140256</v>
+      </c>
+      <c r="Y9">
+        <v>310.11682525192231</v>
+      </c>
+      <c r="Z9">
+        <v>393.4789335358019</v>
+      </c>
+      <c r="AA9">
+        <v>452.62919302105297</v>
+      </c>
+      <c r="AB9">
+        <v>417.03761312051535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>450.70642229877308</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>384.17274893007789</v>
+      </c>
+      <c r="F10">
+        <v>451.42006841211878</v>
+      </c>
+      <c r="G10">
+        <v>401.94913497644154</v>
+      </c>
+      <c r="H10">
+        <v>255.89785610489676</v>
+      </c>
+      <c r="I10">
+        <v>356.43325897823547</v>
+      </c>
+      <c r="J10">
+        <v>379.76179501374469</v>
+      </c>
+      <c r="K10">
+        <v>412.1878973381215</v>
+      </c>
+      <c r="L10">
+        <v>518.64281719248277</v>
+      </c>
+      <c r="M10">
+        <v>484.1564837614095</v>
+      </c>
+      <c r="N10">
+        <v>499.11388250507434</v>
+      </c>
+      <c r="O10">
+        <v>407.94722517810953</v>
+      </c>
+      <c r="P10">
+        <v>394.37440760307999</v>
+      </c>
+      <c r="Q10">
+        <v>408.99850713214914</v>
+      </c>
+      <c r="R10">
+        <v>390.47114287151288</v>
+      </c>
+      <c r="S10">
+        <v>469.12235143898317</v>
+      </c>
+      <c r="T10">
+        <v>453.19323376818357</v>
+      </c>
+      <c r="U10">
+        <v>468.02590294171051</v>
+      </c>
+      <c r="V10">
+        <v>519.87909886802788</v>
+      </c>
+      <c r="W10">
+        <v>554.00972908000654</v>
+      </c>
+      <c r="X10">
+        <v>495.09898549246577</v>
+      </c>
+      <c r="Y10">
+        <v>594.07542440574423</v>
+      </c>
+      <c r="Z10">
+        <v>571.60278070610912</v>
+      </c>
+      <c r="AA10">
+        <v>524.27591277843987</v>
+      </c>
+      <c r="AB10">
+        <v>447.68972089617802</v>
       </c>
     </row>
   </sheetData>
